--- a/DNA_refactor.xlsx
+++ b/DNA_refactor.xlsx
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H45" sqref="H5:H45"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +650,7 @@
         <v>// 1=fill_H_start</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ref="H4:H45" si="1">CONCATENATE("genes[",B5,"]",C5," ;   ",E5)</f>
+        <f t="shared" ref="H5:H45" si="1">CONCATENATE("genes[",B5,"]",C5," ;   ",E5)</f>
         <v>genes[1]= ;   // 1=fill_H_start</v>
       </c>
     </row>

--- a/DNA_refactor.xlsx
+++ b/DNA_refactor.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="158">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -237,6 +238,267 @@
   </si>
   <si>
     <t>=</t>
+  </si>
+  <si>
+    <t>gene[0]</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>gene[1]</t>
+  </si>
+  <si>
+    <t>181.71979</t>
+  </si>
+  <si>
+    <t>gene[2]</t>
+  </si>
+  <si>
+    <t>gene[3]</t>
+  </si>
+  <si>
+    <t>142.00653</t>
+  </si>
+  <si>
+    <t>gene[4]</t>
+  </si>
+  <si>
+    <t>128.0</t>
+  </si>
+  <si>
+    <t>gene[5]</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>gene[6]</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>gene[7]</t>
+  </si>
+  <si>
+    <t>255.0</t>
+  </si>
+  <si>
+    <t>gene[8]</t>
+  </si>
+  <si>
+    <t>gene[9]</t>
+  </si>
+  <si>
+    <t>gene[10]</t>
+  </si>
+  <si>
+    <t>gene[11]</t>
+  </si>
+  <si>
+    <t>gene[12]</t>
+  </si>
+  <si>
+    <t>gene[13]</t>
+  </si>
+  <si>
+    <t>gene[14]</t>
+  </si>
+  <si>
+    <t>gene[15]</t>
+  </si>
+  <si>
+    <t>gene[16]</t>
+  </si>
+  <si>
+    <t>gene[17]</t>
+  </si>
+  <si>
+    <t>107.01311</t>
+  </si>
+  <si>
+    <t>gene[18]</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>gene[19]</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>gene[20]</t>
+  </si>
+  <si>
+    <t>gene[21]</t>
+  </si>
+  <si>
+    <t>gene[22]</t>
+  </si>
+  <si>
+    <t>gene[23]</t>
+  </si>
+  <si>
+    <t>gene[24]</t>
+  </si>
+  <si>
+    <t>gene[25]</t>
+  </si>
+  <si>
+    <t>3.7383308</t>
+  </si>
+  <si>
+    <t>gene[26]</t>
+  </si>
+  <si>
+    <t>3.411943</t>
+  </si>
+  <si>
+    <t>gene[27]</t>
+  </si>
+  <si>
+    <t>233.01321</t>
+  </si>
+  <si>
+    <t>gene[28]</t>
+  </si>
+  <si>
+    <t>522.7996</t>
+  </si>
+  <si>
+    <t>gene[29]</t>
+  </si>
+  <si>
+    <t>65.0</t>
+  </si>
+  <si>
+    <t>gene[30]</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>gene[31]</t>
+  </si>
+  <si>
+    <t>225.5199</t>
+  </si>
+  <si>
+    <t>gene[32]</t>
+  </si>
+  <si>
+    <t>52.318718</t>
+  </si>
+  <si>
+    <t>gene[33]</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>// 32=StripeSize</t>
+  </si>
+  <si>
+    <t>// 33=StripeRatio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0=ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1=fill_H_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2=fill_H_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3=fill_S_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4=fill_S_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5=fill_B_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6=fill_B_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7=fill_A_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8=fill_A_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9=stroke_H_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10=stroke_H_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11=stroke_S_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12=stroke_S_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13=stroke_B_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14=stroke_B_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15=stroke_A_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 16=stroke_A_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 17=radius_Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18=radius_End</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 19=flatness_start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 20=flatness_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 21=twist_Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22=twist_End</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23=noisePercent_Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24=noisePercent_End</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25=noise_vMax</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 26=noise_Step</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 27=noise_xOff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 28=noise_yOff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29=fertility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 30=spawnLimit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 31=lifespan</t>
   </si>
 </sst>
 </file>
@@ -590,14 +852,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -1368,4 +1631,510 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>157</v>
+      </c>
+      <c r="B32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H35" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DNA_refactor.xlsx
+++ b/DNA_refactor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -399,12 +399,6 @@
     <t>0.5</t>
   </si>
   <si>
-    <t>// 32=StripeSize</t>
-  </si>
-  <si>
-    <t>// 33=StripeRatio</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0=ID</t>
   </si>
   <si>
@@ -499,6 +493,12 @@
   </si>
   <si>
     <t xml:space="preserve"> 31=lifespan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32=StripeSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33=StripeRatio</t>
   </si>
 </sst>
 </file>
@@ -852,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E45"/>
     </sheetView>
   </sheetViews>
@@ -1635,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1649,7 +1649,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>71</v>
@@ -1666,7 +1666,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -1683,7 +1683,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
         <v>80</v>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -1784,7 +1784,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
         <v>89</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
         <v>90</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
         <v>91</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
         <v>92</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
         <v>93</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
         <v>94</v>
@@ -1896,7 +1896,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
         <v>95</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
         <v>97</v>
@@ -1924,7 +1924,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
         <v>99</v>
@@ -1938,7 +1938,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
         <v>101</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
         <v>102</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
         <v>103</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
         <v>104</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
         <v>105</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
         <v>106</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
         <v>108</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
         <v>110</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
         <v>112</v>
@@ -2064,7 +2064,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
         <v>114</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
         <v>116</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
         <v>118</v>
@@ -2104,7 +2104,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
       <c r="B33" t="s">
         <v>120</v>
       </c>
@@ -2115,7 +2118,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>157</v>
+      </c>
       <c r="B34" t="s">
         <v>122</v>
       </c>
@@ -2124,14 +2130,6 @@
       </c>
       <c r="D34" t="s">
         <v>123</v>
-      </c>
-      <c r="H34" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H35" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
